--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/TEXAS_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/TEXAS_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1995"/>
+  <dimension ref="A1:D1989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,20 +465,20 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
         <v>114</v>
       </c>
       <c r="D8">
-        <v>0.0009467101821171429</v>
+        <v>0.0009467101821171428</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>1186</v>
       </c>
       <c r="D13">
-        <v>0.009849107684130979</v>
+        <v>0.00984910768413098</v>
       </c>
     </row>
     <row r="14">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C42">
@@ -947,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="D43">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C46">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C54">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C60">
@@ -1220,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="65">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C85">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C89">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C105">
@@ -1759,7 +1759,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C106">
@@ -2091,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="D131">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="132">
@@ -2349,7 +2349,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C151">
@@ -2447,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="D158">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="159">
@@ -2492,7 +2492,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C162">
@@ -2531,7 +2531,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C165">
@@ -2837,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="D188">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="189">
@@ -2856,7 +2856,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C190">
@@ -2869,7 +2869,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C191">
@@ -2882,7 +2882,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C192">
@@ -2986,7 +2986,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C200">
@@ -3258,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="D220">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3297,7 +3297,7 @@
         <v>12</v>
       </c>
       <c r="D223">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="224">
@@ -3407,7 +3407,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C232">
@@ -3620,7 +3620,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C248">
@@ -3646,7 +3646,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3703,7 +3703,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C254">
@@ -3903,7 +3903,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C269">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C283">
@@ -4137,7 +4137,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C287">
@@ -4228,7 +4228,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C294">
@@ -4241,7 +4241,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C295">
@@ -4254,7 +4254,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C296">
@@ -4267,7 +4267,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C297">
@@ -4397,12 +4397,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C307">
@@ -4422,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="D308">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C310">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C312">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C319">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C327">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C332">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C339">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C347">
@@ -4935,7 +4935,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C348">
@@ -5007,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="D353">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="354">
@@ -5156,7 +5156,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C365">
@@ -5325,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C378">
@@ -5338,7 +5338,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C379">
@@ -5351,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C380">
@@ -5377,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5403,7 +5403,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5501,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="D391">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="392">
@@ -5520,7 +5520,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C393">
@@ -5540,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="D394">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="395">
@@ -5592,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="D398">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="399">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C406">
@@ -5767,7 +5767,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C412">
@@ -5780,7 +5780,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C413">
@@ -5793,7 +5793,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C414">
@@ -5806,7 +5806,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C415">
@@ -5917,7 +5917,7 @@
         <v>12</v>
       </c>
       <c r="D423">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="424">
@@ -5961,7 +5961,7 @@
         <v>117</v>
       </c>
       <c r="D426">
-        <v>0.0009716236079623309</v>
+        <v>0.0009716236079623308</v>
       </c>
     </row>
     <row r="427">
@@ -5993,7 +5993,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6006,7 +6006,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C430">
@@ -6110,7 +6110,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C438">
@@ -6162,7 +6162,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C442">
@@ -6266,7 +6266,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C450">
@@ -6318,7 +6318,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C454">
@@ -6338,13 +6338,13 @@
         <v>1171</v>
       </c>
       <c r="D455">
-        <v>0.009724540554905039</v>
+        <v>0.009724540554905041</v>
       </c>
     </row>
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C456">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C458">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C460">
@@ -6422,7 +6422,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C462">
@@ -6487,7 +6487,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C467">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C473">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C476">
@@ -6622,7 +6622,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C477">
@@ -6674,7 +6674,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C481">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C482">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C485">
@@ -6765,7 +6765,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C488">
@@ -6778,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C489">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C491">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C496">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C497">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C501">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C502">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C508">
@@ -7038,7 +7038,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C509">
@@ -7058,13 +7058,13 @@
         <v>12</v>
       </c>
       <c r="D510">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C511">
@@ -7077,7 +7077,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C512">
@@ -7103,7 +7103,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C514">
@@ -7142,7 +7142,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C517">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C530">
@@ -7337,14 +7337,14 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C532">
         <v>109</v>
       </c>
       <c r="D532">
-        <v>0.0009051878057084963</v>
+        <v>0.0009051878057084965</v>
       </c>
     </row>
     <row r="533">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C534">
@@ -7389,7 +7389,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C536">
@@ -7441,7 +7441,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C540">
@@ -7454,7 +7454,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C541">
@@ -7487,7 +7487,7 @@
         <v>12</v>
       </c>
       <c r="D543">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="544">
@@ -7615,7 +7615,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C553">
@@ -7706,7 +7706,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C560">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C561">
@@ -7797,7 +7797,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C567">
@@ -7869,13 +7869,13 @@
         <v>12</v>
       </c>
       <c r="D572">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C573">
@@ -7927,7 +7927,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C577">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C580">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C587">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C588">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C589">
@@ -8096,7 +8096,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C590">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C592">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C593">
@@ -8148,7 +8148,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C594">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C597">
@@ -8265,7 +8265,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C603">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C604">
@@ -8330,7 +8330,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C608">
@@ -8356,7 +8356,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C610">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C611">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C614">
@@ -8493,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="D620">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="621">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C623">
@@ -8538,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C624">
@@ -8551,7 +8551,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C625">
@@ -8603,7 +8603,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C629">
@@ -8616,7 +8616,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C630">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C636">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C641">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C644">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C646">
@@ -8907,7 +8907,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C652">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C658">
@@ -8998,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C659">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C668">
@@ -9174,7 +9174,7 @@
         <v>1095</v>
       </c>
       <c r="D672">
-        <v>0.009093400433493611</v>
+        <v>0.009093400433493612</v>
       </c>
     </row>
     <row r="673">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9219,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C676">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C677">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C681">
@@ -9362,7 +9362,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C687">
@@ -9375,7 +9375,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C688">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C695">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C700">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C701">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C703">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C704">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C707">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C709">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C711">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C712">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C715">
@@ -9752,7 +9752,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C717">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C721">
@@ -9817,7 +9817,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C722">
@@ -9856,7 +9856,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C725">
@@ -9869,7 +9869,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C726">
@@ -9915,7 +9915,7 @@
         <v>12</v>
       </c>
       <c r="D729">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="730">
@@ -10012,7 +10012,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C737">
@@ -10025,7 +10025,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C738">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C740">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C745">
@@ -10129,7 +10129,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C746">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C749">
@@ -10181,7 +10181,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C750">
@@ -10194,7 +10194,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C751">
@@ -10537,7 +10537,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C777">
@@ -10563,7 +10563,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C779">
@@ -10752,7 +10752,7 @@
         <v>12</v>
       </c>
       <c r="D793">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="794">
@@ -10804,7 +10804,7 @@
         <v>12</v>
       </c>
       <c r="D797">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="798">
@@ -11077,7 +11077,7 @@
         <v>12</v>
       </c>
       <c r="D818">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="819">
@@ -11103,7 +11103,7 @@
         <v>12</v>
       </c>
       <c r="D820">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="821">
@@ -11337,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="D838">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="839">
@@ -11434,7 +11434,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C846">
@@ -11688,7 +11688,7 @@
         <v>12</v>
       </c>
       <c r="D865">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="866">
@@ -11777,7 +11777,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C872">
@@ -11933,7 +11933,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C884">
@@ -12011,7 +12011,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C890">
@@ -12024,7 +12024,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C891">
@@ -12096,7 +12096,7 @@
         <v>12</v>
       </c>
       <c r="D896">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="897">
@@ -12115,7 +12115,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C898">
@@ -12172,7 +12172,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C902">
@@ -12185,7 +12185,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C903">
@@ -12237,7 +12237,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C907">
@@ -12315,7 +12315,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C913">
@@ -12348,7 +12348,7 @@
         <v>12</v>
       </c>
       <c r="D915">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="916">
@@ -12554,7 +12554,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C931">
@@ -12639,7 +12639,7 @@
         <v>12</v>
       </c>
       <c r="D937">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="938">
@@ -12788,7 +12788,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C949">
@@ -12879,7 +12879,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C956">
@@ -12905,7 +12905,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C958">
@@ -12938,7 +12938,7 @@
         <v>12</v>
       </c>
       <c r="D960">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="961">
@@ -12996,7 +12996,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C965">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C973">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C977">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C981">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C984">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C989">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C996">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C999">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1008">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1009">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1011">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1014">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1015">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1016">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1017">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1018">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1019">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1032">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1036">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1043">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1050">
@@ -14126,7 +14126,7 @@
         <v>12</v>
       </c>
       <c r="D1051">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1052">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1067">
@@ -14405,7 +14405,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1073">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1081">
@@ -14763,7 +14763,7 @@
         <v>12</v>
       </c>
       <c r="D1100">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1101">
@@ -14808,7 +14808,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1104">
@@ -14886,7 +14886,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1110">
@@ -14964,7 +14964,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1116">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1127">
@@ -15159,7 +15159,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1131">
@@ -15354,7 +15354,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1146">
@@ -15458,7 +15458,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1154">
@@ -15614,7 +15614,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1166">
@@ -15647,7 +15647,7 @@
         <v>12</v>
       </c>
       <c r="D1168">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1169">
@@ -15666,7 +15666,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1170">
@@ -15861,7 +15861,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1185">
@@ -16206,7 +16206,7 @@
         <v>12</v>
       </c>
       <c r="D1211">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1212">
@@ -16485,7 +16485,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1233">
@@ -16609,7 +16609,7 @@
         <v>12</v>
       </c>
       <c r="D1242">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1243">
@@ -16732,7 +16732,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1252">
@@ -16758,7 +16758,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1254">
@@ -16771,7 +16771,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1255">
@@ -16784,7 +16784,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1256">
@@ -16797,7 +16797,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1257">
@@ -16810,7 +16810,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1258">
@@ -16823,7 +16823,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1259">
@@ -16836,7 +16836,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1260">
@@ -16849,7 +16849,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1261">
@@ -16862,7 +16862,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1262">
@@ -16875,7 +16875,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1263">
@@ -16888,7 +16888,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1264">
@@ -16901,7 +16901,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1265">
@@ -16927,7 +16927,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1267">
@@ -16940,7 +16940,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1268">
@@ -16966,7 +16966,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1270">
@@ -17283,7 +17283,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1294">
@@ -17322,7 +17322,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1297">
@@ -17452,7 +17452,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1307">
@@ -17569,7 +17569,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1316">
@@ -17608,7 +17608,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1319">
@@ -17621,7 +17621,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1320">
@@ -17816,7 +17816,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1335">
@@ -17829,7 +17829,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1336">
@@ -17894,7 +17894,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1341">
@@ -17920,7 +17920,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1343">
@@ -17972,7 +17972,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1347">
@@ -18102,7 +18102,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1357">
@@ -18115,7 +18115,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1358">
@@ -18271,14 +18271,14 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1370">
         <v>12</v>
       </c>
       <c r="D1370">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1371">
@@ -18304,7 +18304,7 @@
         <v>12</v>
       </c>
       <c r="D1372">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1373">
@@ -18388,7 +18388,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1379">
@@ -18531,7 +18531,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1390">
@@ -18583,7 +18583,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1394">
@@ -18596,7 +18596,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1395">
@@ -18713,7 +18713,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1404">
@@ -18817,7 +18817,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1412">
@@ -18830,7 +18830,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1413">
@@ -18902,13 +18902,13 @@
         <v>12</v>
       </c>
       <c r="D1418">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1419">
@@ -18934,7 +18934,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1421">
@@ -18947,7 +18947,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1422">
@@ -19012,7 +19012,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1427">
@@ -19181,7 +19181,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1440">
@@ -19233,7 +19233,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1444">
@@ -19311,7 +19311,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1450">
@@ -19415,7 +19415,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1458">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1466">
@@ -19550,7 +19550,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1468">
@@ -19628,7 +19628,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1474">
@@ -19641,7 +19641,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1475">
@@ -19680,7 +19680,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1478">
@@ -19719,7 +19719,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1481">
@@ -19911,7 +19911,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1495">
@@ -19924,7 +19924,7 @@
     <row r="1496">
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1496">
@@ -19989,7 +19989,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1501">
@@ -20015,7 +20015,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1503">
@@ -20158,7 +20158,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1514">
@@ -20236,7 +20236,7 @@
     <row r="1520">
       <c r="B1520" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1520">
@@ -20314,7 +20314,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1526">
@@ -20340,7 +20340,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1528">
@@ -20399,7 +20399,7 @@
         <v>12</v>
       </c>
       <c r="D1532">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1533">
@@ -20438,13 +20438,13 @@
         <v>12</v>
       </c>
       <c r="D1535">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1536">
@@ -20496,7 +20496,7 @@
     <row r="1540">
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1540">
@@ -20509,7 +20509,7 @@
     <row r="1541">
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1541">
@@ -20522,7 +20522,7 @@
     <row r="1542">
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1542">
@@ -20535,7 +20535,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1543">
@@ -20548,7 +20548,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1544">
@@ -20561,7 +20561,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1545">
@@ -21130,7 +21130,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1588">
@@ -21150,7 +21150,7 @@
         <v>12</v>
       </c>
       <c r="D1589">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1590">
@@ -21221,7 +21221,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1595">
@@ -21376,20 +21376,20 @@
         <v>12</v>
       </c>
       <c r="D1606">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1607">
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1607">
         <v>12</v>
       </c>
       <c r="D1607">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1608">
@@ -21589,7 +21589,7 @@
         <v>117</v>
       </c>
       <c r="D1622">
-        <v>0.0009716236079623309</v>
+        <v>0.0009716236079623308</v>
       </c>
     </row>
     <row r="1623">
@@ -21972,7 +21972,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1652">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1660">
@@ -22107,7 +22107,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1662">
@@ -22120,7 +22120,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1663">
@@ -22185,7 +22185,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1668">
@@ -22276,7 +22276,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1675">
@@ -22315,7 +22315,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1678">
@@ -22393,7 +22393,7 @@
     <row r="1684">
       <c r="B1684" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1684">
@@ -22406,7 +22406,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1685">
@@ -22471,7 +22471,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1690">
@@ -22510,7 +22510,7 @@
     <row r="1693">
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1693">
@@ -22647,13 +22647,13 @@
         <v>12</v>
       </c>
       <c r="D1703">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1704">
@@ -22691,7 +22691,7 @@
         <v>12</v>
       </c>
       <c r="D1706">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1707">
@@ -22788,7 +22788,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1714">
@@ -22840,14 +22840,14 @@
     <row r="1718">
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1718">
         <v>12</v>
       </c>
       <c r="D1718">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1719">
@@ -22925,7 +22925,7 @@
         <v>12</v>
       </c>
       <c r="D1724">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1725">
@@ -22983,7 +22983,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1729">
@@ -23048,7 +23048,7 @@
     <row r="1734">
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1734">
@@ -23178,7 +23178,7 @@
     <row r="1744">
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1744">
@@ -23347,7 +23347,7 @@
     <row r="1757">
       <c r="B1757" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1757">
@@ -23360,7 +23360,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1758">
@@ -23393,7 +23393,7 @@
         <v>12</v>
       </c>
       <c r="D1760">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1761">
@@ -23581,7 +23581,7 @@
     <row r="1775">
       <c r="B1775" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1775">
@@ -23594,7 +23594,7 @@
     <row r="1776">
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1776">
@@ -23607,7 +23607,7 @@
     <row r="1777">
       <c r="B1777" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1777">
@@ -23659,7 +23659,7 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1781">
@@ -23672,7 +23672,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1782">
@@ -23685,7 +23685,7 @@
     <row r="1783">
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1783">
@@ -23828,7 +23828,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1794">
@@ -23867,7 +23867,7 @@
     <row r="1797">
       <c r="B1797" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1797">
@@ -23906,7 +23906,7 @@
     <row r="1800">
       <c r="B1800" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1800">
@@ -23919,7 +23919,7 @@
     <row r="1801">
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1801">
@@ -23984,7 +23984,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1806">
@@ -24023,7 +24023,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1809">
@@ -24075,7 +24075,7 @@
     <row r="1813">
       <c r="B1813" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1813">
@@ -24101,7 +24101,7 @@
     <row r="1815">
       <c r="B1815" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1815">
@@ -24121,7 +24121,7 @@
         <v>12</v>
       </c>
       <c r="D1816">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1817">
@@ -24231,7 +24231,7 @@
     <row r="1825">
       <c r="B1825" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1825">
@@ -24283,20 +24283,20 @@
     <row r="1829">
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1829">
         <v>12</v>
       </c>
       <c r="D1829">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1830">
       <c r="B1830" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1830">
@@ -24348,7 +24348,7 @@
     <row r="1834">
       <c r="B1834" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1834">
@@ -24465,7 +24465,7 @@
     <row r="1843">
       <c r="B1843" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1843">
@@ -24517,7 +24517,7 @@
     <row r="1847">
       <c r="B1847" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1847">
@@ -24621,7 +24621,7 @@
     <row r="1855">
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1855">
@@ -24881,7 +24881,7 @@
     <row r="1875">
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1875">
@@ -25050,7 +25050,7 @@
     <row r="1888">
       <c r="B1888" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1888">
@@ -25193,7 +25193,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1899">
@@ -25206,7 +25206,7 @@
     <row r="1900">
       <c r="B1900" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1900">
@@ -25684,7 +25684,7 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1936">
@@ -25710,7 +25710,7 @@
     <row r="1938">
       <c r="B1938" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1938">
@@ -25736,7 +25736,7 @@
     <row r="1940">
       <c r="B1940" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1940">
@@ -25860,7 +25860,7 @@
         <v>110</v>
       </c>
       <c r="D1949">
-        <v>0.0009134922809902257</v>
+        <v>0.0009134922809902256</v>
       </c>
     </row>
     <row r="1950">
@@ -25879,7 +25879,7 @@
     <row r="1951">
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1951">
@@ -25970,7 +25970,7 @@
     <row r="1958">
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1958">
@@ -26035,7 +26035,7 @@
     <row r="1963">
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1963">
@@ -26048,7 +26048,7 @@
     <row r="1964">
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1964">
@@ -26061,7 +26061,7 @@
     <row r="1965">
       <c r="B1965" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1965">
@@ -26198,13 +26198,13 @@
         <v>12</v>
       </c>
       <c r="D1975">
-        <v>9.965370338075189E-05</v>
+        <v>9.965370338075188E-05</v>
       </c>
     </row>
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1976">
@@ -26217,7 +26217,7 @@
     <row r="1977">
       <c r="B1977" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1977">
@@ -26243,7 +26243,7 @@
     <row r="1979">
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1979">
@@ -26282,7 +26282,7 @@
     <row r="1982">
       <c r="B1982" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1982">
@@ -26381,41 +26381,6 @@
       </c>
       <c r="D1989">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
